--- a/Provider_Preferences.xlsx
+++ b/Provider_Preferences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Google Drive\UNM\2021_spring\ECE435\project\DD_Branch\ece435\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9244D6-E460-4140-BB42-F43558560F22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CB2C39-B687-47FB-810A-CAFE5C577C47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="56">
   <si>
     <t>Last</t>
   </si>
@@ -163,7 +185,10 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Start Date</t>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>PM</t>
   </si>
   <si>
     <t>Shift Limit</t>
@@ -175,7 +200,31 @@
     <t>Flexible</t>
   </si>
   <si>
-    <t>=column()</t>
+    <t>Weekdays</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Dates</t>
   </si>
 </sst>
 </file>
@@ -485,21 +534,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="19" width="7.875" style="3" customWidth="1"/>
-    <col min="20" max="30" width="8.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.875" style="3" customWidth="1"/>
-    <col min="32" max="33" width="8.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="34" max="40" width="7.625" style="3" customWidth="1"/>
     <col min="41" max="16384" width="12.625" style="3"/>
   </cols>
@@ -518,147 +577,147 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+        <v>44</v>
+      </c>
+      <c r="F1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/03
+Mon AM</v>
+      </c>
+      <c r="G1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/03
+Mon PM</v>
+      </c>
+      <c r="H1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/04
- AM</v>
-      </c>
-      <c r="G1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Tue AM</v>
+      </c>
+      <c r="I1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/04
- PM</v>
-      </c>
-      <c r="H1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+Tue PM</v>
+      </c>
+      <c r="J1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/05
- AM</v>
-      </c>
-      <c r="I1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Wed AM</v>
+      </c>
+      <c r="K1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/05
- PM</v>
-      </c>
-      <c r="J1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+Wed PM</v>
+      </c>
+      <c r="L1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/06
- AM</v>
-      </c>
-      <c r="K1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Thu AM</v>
+      </c>
+      <c r="M1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/06
- PM</v>
-      </c>
-      <c r="L1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+Thu PM</v>
+      </c>
+      <c r="N1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/07
- AM</v>
-      </c>
-      <c r="M1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Fri AM</v>
+      </c>
+      <c r="O1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/07
- PM</v>
-      </c>
-      <c r="N1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+Fri PM</v>
+      </c>
+      <c r="P1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/08
- AM</v>
-      </c>
-      <c r="O1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Sat AM</v>
+      </c>
+      <c r="Q1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/08
- PM</v>
-      </c>
-      <c r="P1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+Sat PM</v>
+      </c>
+      <c r="R1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/09
- AM</v>
-      </c>
-      <c r="Q1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Sun AM</v>
+      </c>
+      <c r="S1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/09
- PM</v>
-      </c>
-      <c r="R1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+Sun PM</v>
+      </c>
+      <c r="T1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/10
- AM</v>
-      </c>
-      <c r="S1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Mon AM</v>
+      </c>
+      <c r="U1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/10
- PM</v>
-      </c>
-      <c r="T1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+Mon PM</v>
+      </c>
+      <c r="V1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/11
- AM</v>
-      </c>
-      <c r="U1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Tue AM</v>
+      </c>
+      <c r="W1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/11
- PM</v>
-      </c>
-      <c r="V1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+Tue PM</v>
+      </c>
+      <c r="X1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/12
- AM</v>
-      </c>
-      <c r="W1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Wed AM</v>
+      </c>
+      <c r="Y1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/12
- PM</v>
-      </c>
-      <c r="X1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+Wed PM</v>
+      </c>
+      <c r="Z1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/13
- AM</v>
-      </c>
-      <c r="Y1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Thu AM</v>
+      </c>
+      <c r="AA1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/13
- PM</v>
-      </c>
-      <c r="Z1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+Thu PM</v>
+      </c>
+      <c r="AB1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/14
- AM</v>
-      </c>
-      <c r="AA1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Fri AM</v>
+      </c>
+      <c r="AC1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/14
- PM</v>
-      </c>
-      <c r="AB1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+Fri PM</v>
+      </c>
+      <c r="AD1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/15
- AM</v>
-      </c>
-      <c r="AC1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Sat AM</v>
+      </c>
+      <c r="AE1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/15
- PM</v>
-      </c>
-      <c r="AD1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
+Sat PM</v>
+      </c>
+      <c r="AF1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/16
- AM</v>
-      </c>
-      <c r="AE1" s="12" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
+Sun AM</v>
+      </c>
+      <c r="AG1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/16
- PM</v>
-      </c>
-      <c r="AF1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," AM")</f>
-        <v>05/17
- AM</v>
-      </c>
-      <c r="AG1" s="11" t="str">
-        <f ca="1">CONCATENATE(TEXT((Sheet2!$C$2)+(INT((COLUMN())/2)-2), "mm/dd"),CHAR(10)," PM")</f>
-        <v>05/17
- PM</v>
+Sun PM</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -669,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -770,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -871,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -972,7 +1031,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
@@ -1073,7 +1132,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
@@ -1174,7 +1233,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
@@ -1275,7 +1334,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
@@ -1376,7 +1435,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>18</v>
@@ -1477,7 +1536,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
@@ -1578,7 +1637,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
@@ -1679,7 +1738,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>18</v>
@@ -1779,7 +1838,9 @@
       <c r="B13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1872,125 +1933,19 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" s="3">
-        <f>COLUMN()</f>
-        <v>6</v>
-      </c>
-      <c r="G16" s="3">
-        <f>COLUMN()</f>
-        <v>7</v>
-      </c>
-      <c r="H16" s="3">
-        <f>COLUMN()</f>
-        <v>8</v>
-      </c>
-      <c r="I16" s="3">
-        <f>COLUMN()</f>
-        <v>9</v>
-      </c>
-      <c r="J16" s="3">
-        <f>COLUMN()</f>
-        <v>10</v>
-      </c>
-      <c r="K16" s="3">
-        <f>COLUMN()</f>
-        <v>11</v>
-      </c>
-      <c r="L16" s="3">
-        <f>COLUMN()</f>
-        <v>12</v>
-      </c>
-      <c r="M16" s="3">
-        <f>COLUMN()</f>
-        <v>13</v>
-      </c>
-      <c r="N16" s="3">
-        <f>COLUMN()</f>
-        <v>14</v>
-      </c>
-      <c r="O16" s="3">
-        <f>COLUMN()</f>
-        <v>15</v>
-      </c>
-      <c r="P16" s="3">
-        <f>COLUMN()</f>
-        <v>16</v>
-      </c>
-      <c r="Q16" s="3">
-        <f>COLUMN()</f>
-        <v>17</v>
-      </c>
-      <c r="R16" s="3">
-        <f>COLUMN()</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="6:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F17" s="3">
-        <f>INT((COLUMN())/2)-3</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" ref="G17:Q17" si="0">INT((COLUMN())/2)-3</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A15" s="9"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2969,17 +2924,17 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D13 D22:D1048576 F22:S1048576</xm:sqref>
+          <xm:sqref>D22:D1048576 D2:D13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{456F7F48-20F7-4E73-8A50-6134AAE9277C}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:U13 T22:U1048576 F2:G13</xm:sqref>
+          <xm:sqref>F2:AG1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{637E6956-B937-4D93-8622-B1F79DCE7143}">
           <x14:formula1>
-            <xm:f>Sheet2!$D$2:$D$3</xm:f>
+            <xm:f>Sheet2!$C$2:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -2991,10 +2946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3005,7 +2960,7 @@
     <col min="4" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3013,106 +2968,472 @@
         <v>9</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J1" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
-        <f ca="1">IF(WEEKDAY(TODAY(),3)=0,TODAY(),TODAY()+(7-WEEKDAY(TODAY(),3)))</f>
-        <v>44319</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="str">
+        <f ca="1">TEXT(IF(WEEKDAY(TODAY(),3)=0,TODAY(),TODAY()+(7-WEEKDAY(TODAY(),3)))+(INT((ROW())/2)-1),"mm/dd")</f>
+        <v>05/03</v>
+      </c>
+      <c r="E2" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">OFFSET($J$2,WEEKDAY(D2,3),,,)</f>
+        <v>Mon</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D29" ca="1" si="0">TEXT(IF(WEEKDAY(TODAY(),3)=0,TODAY(),TODAY()+(7-WEEKDAY(TODAY(),3)))+(INT((ROW())/2)-1),"mm/dd")</f>
+        <v>05/03</v>
+      </c>
+      <c r="E3" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">OFFSET($J$2,WEEKDAY(D3,3),,,)</f>
+        <v>Mon</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/04</v>
+      </c>
+      <c r="E4" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">OFFSET($J$2,WEEKDAY(D4,3),,,)</f>
+        <v>Tue</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/04</v>
+      </c>
+      <c r="E5" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">OFFSET($J$2,WEEKDAY(D5,3),,,)</f>
+        <v>Tue</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/05</v>
+      </c>
+      <c r="E6" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">OFFSET($J$2,WEEKDAY(D6,3),,,)</f>
+        <v>Wed</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/05</v>
+      </c>
+      <c r="E7" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">OFFSET($J$2,WEEKDAY(D7,3),,,)</f>
+        <v>Wed</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/06</v>
+      </c>
+      <c r="E8" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">OFFSET($J$2,WEEKDAY(D8,3),,,)</f>
+        <v>Thu</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/06</v>
+      </c>
+      <c r="E9" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">OFFSET($J$2,WEEKDAY(D9,3),,,)</f>
+        <v>Thu</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/07</v>
+      </c>
+      <c r="E10" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">OFFSET($J$2,WEEKDAY(D10,3),,,)</f>
+        <v>Fri</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/07</v>
+      </c>
+      <c r="E11" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">OFFSET($J$2,WEEKDAY(D11,3),,,)</f>
+        <v>Fri</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/08</v>
+      </c>
+      <c r="E12" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">OFFSET($J$2,WEEKDAY(D12,3),,,)</f>
+        <v>Sat</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/08</v>
+      </c>
+      <c r="E13" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">OFFSET($J$2,WEEKDAY(D13,3),,,)</f>
+        <v>Sat</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/09</v>
+      </c>
+      <c r="E14" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">OFFSET($J$2,WEEKDAY(D14,3),,,)</f>
+        <v>Sun</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/09</v>
+      </c>
+      <c r="E15" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">OFFSET($J$2,WEEKDAY(D15,3),,,)</f>
+        <v>Sun</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/10</v>
+      </c>
+      <c r="E16" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">OFFSET($J$2,WEEKDAY(D16,3),,,)</f>
+        <v>Mon</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/10</v>
+      </c>
+      <c r="E17" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E17" ca="1">OFFSET($J$2,WEEKDAY(D17,3),,,)</f>
+        <v>Mon</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/11</v>
+      </c>
+      <c r="E18" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E18" ca="1">OFFSET($J$2,WEEKDAY(D18,3),,,)</f>
+        <v>Tue</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/11</v>
+      </c>
+      <c r="E19" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E19" ca="1">OFFSET($J$2,WEEKDAY(D19,3),,,)</f>
+        <v>Tue</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/12</v>
+      </c>
+      <c r="E20" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E20" ca="1">OFFSET($J$2,WEEKDAY(D20,3),,,)</f>
+        <v>Wed</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/12</v>
+      </c>
+      <c r="E21" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E21" ca="1">OFFSET($J$2,WEEKDAY(D21,3),,,)</f>
+        <v>Wed</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/13</v>
+      </c>
+      <c r="E22" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E22" ca="1">OFFSET($J$2,WEEKDAY(D22,3),,,)</f>
+        <v>Thu</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/13</v>
+      </c>
+      <c r="E23" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E23" ca="1">OFFSET($J$2,WEEKDAY(D23,3),,,)</f>
+        <v>Thu</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/14</v>
+      </c>
+      <c r="E24" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E24" ca="1">OFFSET($J$2,WEEKDAY(D24,3),,,)</f>
+        <v>Fri</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/14</v>
+      </c>
+      <c r="E25" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E25" ca="1">OFFSET($J$2,WEEKDAY(D25,3),,,)</f>
+        <v>Fri</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/15</v>
+      </c>
+      <c r="E26" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E26" ca="1">OFFSET($J$2,WEEKDAY(D26,3),,,)</f>
+        <v>Sat</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/15</v>
+      </c>
+      <c r="E27" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E27" ca="1">OFFSET($J$2,WEEKDAY(D27,3),,,)</f>
+        <v>Sat</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/16</v>
+      </c>
+      <c r="E28" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E28" ca="1">OFFSET($J$2,WEEKDAY(D28,3),,,)</f>
+        <v>Sun</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>05/16</v>
+      </c>
+      <c r="E29" s="10" t="str" cm="1">
+        <f t="array" aca="1" ref="E29" ca="1">OFFSET($J$2,WEEKDAY(D29,3),,,)</f>
+        <v>Sun</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Provider_Preferences.xlsx
+++ b/Provider_Preferences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Google Drive\UNM\2021_spring\ECE435\project\DD_Branch\ece435\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminrutherford/PycharmProjects/ece435/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CB2C39-B687-47FB-810A-CAFE5C577C47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFA94B7-8BA0-2940-8A0A-5231043107A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,35 +535,35 @@
   <dimension ref="A1:AG999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="40" width="7.625" style="3" customWidth="1"/>
-    <col min="41" max="16384" width="12.625" style="3"/>
+    <col min="34" max="40" width="7.6640625" style="3" customWidth="1"/>
+    <col min="41" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -720,7 +720,7 @@
 Sun PM</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -734,7 +734,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>15</v>
@@ -821,7 +821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -835,7 +835,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
@@ -922,7 +922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
@@ -936,7 +936,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -1023,7 +1023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
@@ -1124,7 +1124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
@@ -1225,7 +1225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>15</v>
@@ -1427,7 +1427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>15</v>
@@ -1528,7 +1528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
@@ -1629,7 +1629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
@@ -1730,7 +1730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
@@ -1831,7 +1831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>15</v>
@@ -1932,987 +1932,987 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -2952,15 +2952,15 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="7.625" customWidth="1"/>
+    <col min="4" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/07</v>
@@ -3171,7 +3171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/08</v>
@@ -3184,7 +3184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/08</v>
@@ -3197,7 +3197,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/09</v>
@@ -3210,7 +3210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/09</v>
@@ -3223,7 +3223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/10</v>
@@ -3236,7 +3236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/10</v>
@@ -3249,7 +3249,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/11</v>
@@ -3262,7 +3262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/11</v>
@@ -3275,7 +3275,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/12</v>
@@ -3288,7 +3288,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/12</v>
@@ -3301,7 +3301,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/13</v>
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/13</v>
@@ -3327,7 +3327,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/14</v>
@@ -3340,7 +3340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/14</v>
@@ -3353,7 +3353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/15</v>
@@ -3366,7 +3366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/15</v>
@@ -3379,7 +3379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/16</v>
@@ -3392,7 +3392,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>05/16</v>
@@ -3405,987 +3405,987 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Provider_Preferences.xlsx
+++ b/Provider_Preferences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Google Drive\UNM\2021_spring\ECE435\project\DD_Branch\ece435\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CB2C39-B687-47FB-810A-CAFE5C577C47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FEC9A3-B943-4C89-A004-5075DC424AD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,6 +316,9 @@
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,7 +538,7 @@
   <dimension ref="A1:AG999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -581,144 +584,144 @@
       </c>
       <c r="F1" s="11" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/03
-Mon AM</v>
-      </c>
-      <c r="G1" s="11" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/03
-Mon PM</v>
-      </c>
-      <c r="H1" s="12" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/04
-Tue AM</v>
-      </c>
-      <c r="I1" s="12" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/04
-Tue PM</v>
-      </c>
-      <c r="J1" s="11" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/05
-Wed AM</v>
-      </c>
-      <c r="K1" s="11" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/05
-Wed PM</v>
-      </c>
-      <c r="L1" s="12" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/06
-Thu AM</v>
-      </c>
-      <c r="M1" s="12" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/06
-Thu PM</v>
-      </c>
-      <c r="N1" s="11" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/07
-Fri AM</v>
-      </c>
-      <c r="O1" s="11" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/07
-Fri PM</v>
-      </c>
-      <c r="P1" s="12" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/08
-Sat AM</v>
-      </c>
-      <c r="Q1" s="12" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/08
-Sat PM</v>
-      </c>
-      <c r="R1" s="11" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/09
-Sun AM</v>
-      </c>
-      <c r="S1" s="11" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
-        <v>05/09
-Sun PM</v>
-      </c>
-      <c r="T1" s="12" t="str">
-        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/10
 Mon AM</v>
       </c>
-      <c r="U1" s="12" t="str">
+      <c r="G1" s="11" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/10
 Mon PM</v>
       </c>
-      <c r="V1" s="11" t="str">
+      <c r="H1" s="12" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/11
 Tue AM</v>
       </c>
-      <c r="W1" s="11" t="str">
+      <c r="I1" s="12" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/11
 Tue PM</v>
       </c>
-      <c r="X1" s="12" t="str">
+      <c r="J1" s="11" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/12
 Wed AM</v>
       </c>
-      <c r="Y1" s="12" t="str">
+      <c r="K1" s="11" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/12
 Wed PM</v>
       </c>
-      <c r="Z1" s="11" t="str">
+      <c r="L1" s="12" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/13
 Thu AM</v>
       </c>
-      <c r="AA1" s="11" t="str">
+      <c r="M1" s="12" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/13
 Thu PM</v>
       </c>
-      <c r="AB1" s="12" t="str">
+      <c r="N1" s="11" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/14
 Fri AM</v>
       </c>
-      <c r="AC1" s="12" t="str">
+      <c r="O1" s="11" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/14
 Fri PM</v>
       </c>
-      <c r="AD1" s="11" t="str">
+      <c r="P1" s="12" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/15
 Sat AM</v>
       </c>
-      <c r="AE1" s="11" t="str">
+      <c r="Q1" s="12" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/15
 Sat PM</v>
       </c>
-      <c r="AF1" s="12" t="str">
+      <c r="R1" s="11" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/16
 Sun AM</v>
       </c>
-      <c r="AG1" s="12" t="str">
+      <c r="S1" s="11" t="str">
         <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
         <v>05/16
 Sun PM</v>
       </c>
+      <c r="T1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/17
+Mon AM</v>
+      </c>
+      <c r="U1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/17
+Mon PM</v>
+      </c>
+      <c r="V1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/18
+Tue AM</v>
+      </c>
+      <c r="W1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/18
+Tue PM</v>
+      </c>
+      <c r="X1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/19
+Wed AM</v>
+      </c>
+      <c r="Y1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/19
+Wed PM</v>
+      </c>
+      <c r="Z1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/20
+Thu AM</v>
+      </c>
+      <c r="AA1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/20
+Thu PM</v>
+      </c>
+      <c r="AB1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/21
+Fri AM</v>
+      </c>
+      <c r="AC1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/21
+Fri PM</v>
+      </c>
+      <c r="AD1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/22
+Sat AM</v>
+      </c>
+      <c r="AE1" s="11" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/22
+Sat PM</v>
+      </c>
+      <c r="AF1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/23
+Sun AM</v>
+      </c>
+      <c r="AG1" s="12" t="str">
+        <f ca="1">CONCATENATE(OFFSET(Sheet2!$D2,COLUMN()-6,),CHAR(10),OFFSET(Sheet2!$E2,COLUMN()-6,)," ",OFFSET(Sheet2!$F2,COLUMN()-6,))</f>
+        <v>05/23
+Sun PM</v>
+      </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -734,7 +737,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>15</v>
@@ -835,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>15</v>
@@ -936,7 +939,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -1037,7 +1040,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
@@ -1138,12 +1141,12 @@
         <v>18</v>
       </c>
       <c r="E6" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1239,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>15</v>
@@ -1340,7 +1343,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>15</v>
@@ -1441,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>15</v>
@@ -1542,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>15</v>
@@ -1643,7 +1646,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>15</v>
@@ -1744,7 +1747,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>15</v>
@@ -1845,7 +1848,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>15</v>
@@ -2990,7 +2993,7 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">TEXT(IF(WEEKDAY(TODAY(),3)=0,TODAY(),TODAY()+(7-WEEKDAY(TODAY(),3)))+(INT((ROW())/2)-1),"mm/dd")</f>
-        <v>05/03</v>
+        <v>05/10</v>
       </c>
       <c r="E2" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">OFFSET($J$2,WEEKDAY(D2,3),,,)</f>
@@ -3015,7 +3018,7 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D29" ca="1" si="0">TEXT(IF(WEEKDAY(TODAY(),3)=0,TODAY(),TODAY()+(7-WEEKDAY(TODAY(),3)))+(INT((ROW())/2)-1),"mm/dd")</f>
-        <v>05/03</v>
+        <v>05/10</v>
       </c>
       <c r="E3" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">OFFSET($J$2,WEEKDAY(D3,3),,,)</f>
@@ -3037,7 +3040,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/04</v>
+        <v>05/11</v>
       </c>
       <c r="E4" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">OFFSET($J$2,WEEKDAY(D4,3),,,)</f>
@@ -3056,7 +3059,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/04</v>
+        <v>05/11</v>
       </c>
       <c r="E5" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">OFFSET($J$2,WEEKDAY(D5,3),,,)</f>
@@ -3075,7 +3078,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/05</v>
+        <v>05/12</v>
       </c>
       <c r="E6" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">OFFSET($J$2,WEEKDAY(D6,3),,,)</f>
@@ -3094,7 +3097,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/05</v>
+        <v>05/12</v>
       </c>
       <c r="E7" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">OFFSET($J$2,WEEKDAY(D7,3),,,)</f>
@@ -3113,7 +3116,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/06</v>
+        <v>05/13</v>
       </c>
       <c r="E8" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">OFFSET($J$2,WEEKDAY(D8,3),,,)</f>
@@ -3132,7 +3135,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/06</v>
+        <v>05/13</v>
       </c>
       <c r="E9" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">OFFSET($J$2,WEEKDAY(D9,3),,,)</f>
@@ -3148,7 +3151,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07</v>
+        <v>05/14</v>
       </c>
       <c r="E10" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">OFFSET($J$2,WEEKDAY(D10,3),,,)</f>
@@ -3161,7 +3164,7 @@
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07</v>
+        <v>05/14</v>
       </c>
       <c r="E11" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">OFFSET($J$2,WEEKDAY(D11,3),,,)</f>
@@ -3174,7 +3177,7 @@
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/08</v>
+        <v>05/15</v>
       </c>
       <c r="E12" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">OFFSET($J$2,WEEKDAY(D12,3),,,)</f>
@@ -3187,7 +3190,7 @@
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/08</v>
+        <v>05/15</v>
       </c>
       <c r="E13" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">OFFSET($J$2,WEEKDAY(D13,3),,,)</f>
@@ -3200,7 +3203,7 @@
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/09</v>
+        <v>05/16</v>
       </c>
       <c r="E14" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">OFFSET($J$2,WEEKDAY(D14,3),,,)</f>
@@ -3213,7 +3216,7 @@
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/09</v>
+        <v>05/16</v>
       </c>
       <c r="E15" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">OFFSET($J$2,WEEKDAY(D15,3),,,)</f>
@@ -3226,7 +3229,7 @@
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/10</v>
+        <v>05/17</v>
       </c>
       <c r="E16" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">OFFSET($J$2,WEEKDAY(D16,3),,,)</f>
@@ -3239,7 +3242,7 @@
     <row r="17" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/10</v>
+        <v>05/17</v>
       </c>
       <c r="E17" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">OFFSET($J$2,WEEKDAY(D17,3),,,)</f>
@@ -3252,7 +3255,7 @@
     <row r="18" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/11</v>
+        <v>05/18</v>
       </c>
       <c r="E18" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">OFFSET($J$2,WEEKDAY(D18,3),,,)</f>
@@ -3265,7 +3268,7 @@
     <row r="19" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/11</v>
+        <v>05/18</v>
       </c>
       <c r="E19" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">OFFSET($J$2,WEEKDAY(D19,3),,,)</f>
@@ -3278,7 +3281,7 @@
     <row r="20" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/12</v>
+        <v>05/19</v>
       </c>
       <c r="E20" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">OFFSET($J$2,WEEKDAY(D20,3),,,)</f>
@@ -3291,7 +3294,7 @@
     <row r="21" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/12</v>
+        <v>05/19</v>
       </c>
       <c r="E21" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">OFFSET($J$2,WEEKDAY(D21,3),,,)</f>
@@ -3304,7 +3307,7 @@
     <row r="22" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/13</v>
+        <v>05/20</v>
       </c>
       <c r="E22" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">OFFSET($J$2,WEEKDAY(D22,3),,,)</f>
@@ -3317,7 +3320,7 @@
     <row r="23" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/13</v>
+        <v>05/20</v>
       </c>
       <c r="E23" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">OFFSET($J$2,WEEKDAY(D23,3),,,)</f>
@@ -3330,7 +3333,7 @@
     <row r="24" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/14</v>
+        <v>05/21</v>
       </c>
       <c r="E24" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">OFFSET($J$2,WEEKDAY(D24,3),,,)</f>
@@ -3343,7 +3346,7 @@
     <row r="25" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/14</v>
+        <v>05/21</v>
       </c>
       <c r="E25" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">OFFSET($J$2,WEEKDAY(D25,3),,,)</f>
@@ -3356,7 +3359,7 @@
     <row r="26" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/15</v>
+        <v>05/22</v>
       </c>
       <c r="E26" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E26" ca="1">OFFSET($J$2,WEEKDAY(D26,3),,,)</f>
@@ -3369,7 +3372,7 @@
     <row r="27" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/15</v>
+        <v>05/22</v>
       </c>
       <c r="E27" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E27" ca="1">OFFSET($J$2,WEEKDAY(D27,3),,,)</f>
@@ -3382,7 +3385,7 @@
     <row r="28" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/16</v>
+        <v>05/23</v>
       </c>
       <c r="E28" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E28" ca="1">OFFSET($J$2,WEEKDAY(D28,3),,,)</f>
@@ -3395,7 +3398,7 @@
     <row r="29" spans="4:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/16</v>
+        <v>05/23</v>
       </c>
       <c r="E29" s="10" t="str" cm="1">
         <f t="array" aca="1" ref="E29" ca="1">OFFSET($J$2,WEEKDAY(D29,3),,,)</f>
